--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficerLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficerLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D849D81E-4066-4491-A613-77D49B14F352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6021B1-D313-440C-9634-B08F2269BBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,53 +21,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>欄位名稱</t>
@@ -89,194 +89,223 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EmpClass</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ClassPass</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>協辦等級</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EffectiveDate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>員工代號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>生效日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>初階授信通過</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IneffectiveDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>停效日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AreaCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DistCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DeptCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>單位代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>區部代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>部室代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AreaItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DistItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DeptItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>單位中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>區部中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>部室中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EmpNo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PfCoOfficerLog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>協辦人員等級歷程檔</t>
   </si>
   <si>
-    <t>EmpNo,EffectiveDate,SerialNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SerialNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>LogNo</t>
   </si>
   <si>
     <t>序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水號用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpNo= ,AND EffectiveDate=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SerialNo ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>EmpNo=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findEmpNoEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateTlrNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新經辦</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期時間</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增 2.修改 4.刪除</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -343,6 +372,14 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -426,124 +463,158 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{5CC221D7-A7B2-469B-8865-AAF56CE11015}"/>
+    <cellStyle name="一般 2 3" xfId="4" xr:uid="{02986C2C-6CFE-44BF-9EEE-F63A58A45715}"/>
+    <cellStyle name="一般 2 4" xfId="2" xr:uid="{3DBB9A36-F277-4472-AE68-D6C4509D7743}"/>
+    <cellStyle name="一般 3" xfId="5" xr:uid="{62556B0F-1842-41C7-889F-2A2139106B98}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -879,28 +950,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
@@ -912,78 +983,78 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1002,295 +1073,351 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="37">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="37">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E10" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
-        <v>2</v>
-      </c>
-      <c r="B10" s="19" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="37">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E11" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>3</v>
-      </c>
-      <c r="B11" s="25" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="37">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E12" s="23">
         <v>8</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>4</v>
-      </c>
-      <c r="B12" s="25" t="s">
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="37">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E13" s="23">
         <v>6</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
-        <v>5</v>
-      </c>
-      <c r="B13" s="25" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="37">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E14" s="23">
         <v>6</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="37">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="23">
         <v>6</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="37">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="27">
-        <v>6</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>7</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="E16" s="23">
+        <v>20</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="37">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E17" s="23">
         <v>20</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>8</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="37">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E18" s="23">
         <v>20</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
-        <v>9</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="27">
-        <v>20</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>10</v>
-      </c>
-      <c r="B18" s="25" t="s">
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="37">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="27">
-        <v>1</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
-        <v>11</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="23">
         <v>1</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
+      <c r="A20" s="37">
         <v>12</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="23">
-        <v>2</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="B20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37">
         <v>13</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="20">
+        <v>6</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37">
+        <v>14</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="20">
+        <v>8</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37">
+        <v>15</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="37">
+        <v>16</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
-        <v>14</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="37">
+        <v>17</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E25" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
-        <v>15</v>
-      </c>
-      <c r="B23" s="19" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="37">
+        <v>18</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
-        <v>16</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="37">
+        <v>19</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E27" s="20">
         <v>6</v>
       </c>
     </row>
@@ -1304,7 +1431,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1314,9 +1441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1340,17 +1467,17 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficerLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficerLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6021B1-D313-440C-9634-B08F2269BBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480CD5FA-0E4B-4380-A423-117824A6D09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,8 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1.新增 2.修改 4.刪除</t>
+    <t>1.新增 2.修改 4.刪除 
+6.離職異動 7.調職異動 8.考核職級異動9.考核核算底稿</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -565,6 +566,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -576,45 +586,15 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{5CC221D7-A7B2-469B-8865-AAF56CE11015}"/>
-    <cellStyle name="一般 2 3" xfId="4" xr:uid="{02986C2C-6CFE-44BF-9EEE-F63A58A45715}"/>
-    <cellStyle name="一般 2 4" xfId="2" xr:uid="{3DBB9A36-F277-4472-AE68-D6C4509D7743}"/>
-    <cellStyle name="一般 3" xfId="5" xr:uid="{62556B0F-1842-41C7-889F-2A2139106B98}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -630,9 +610,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -670,9 +650,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,26 +685,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -757,26 +720,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -952,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -963,15 +909,15 @@
     <col min="3" max="3" width="59.5546875" style="16" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
@@ -983,8 +929,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -996,11 +942,11 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -1011,10 +957,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
@@ -1022,10 +968,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -1033,10 +979,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -1044,10 +990,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -1078,24 +1024,24 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="37">
+      <c r="A9" s="27">
         <v>1</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="39"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="37">
+      <c r="A10" s="27">
         <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1112,7 +1058,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="37">
+      <c r="A11" s="27">
         <v>3</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -1129,7 +1075,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="37">
+      <c r="A12" s="27">
         <v>4</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -1148,7 +1094,7 @@
       <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="37">
+      <c r="A13" s="27">
         <v>5</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -1167,7 +1113,7 @@
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="37">
+      <c r="A14" s="27">
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -1186,7 +1132,7 @@
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="37">
+      <c r="A15" s="27">
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -1205,7 +1151,7 @@
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="37">
+      <c r="A16" s="27">
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -1224,7 +1170,7 @@
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="37">
+      <c r="A17" s="27">
         <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -1243,7 +1189,7 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="37">
+      <c r="A18" s="27">
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -1262,7 +1208,7 @@
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="37">
+      <c r="A19" s="27">
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -1281,7 +1227,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="37">
+      <c r="A20" s="27">
         <v>12</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1298,67 +1244,67 @@
       </c>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
         <v>13</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="20">
         <v>6</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37">
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
         <v>14</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="20">
         <v>8</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37">
+      <c r="F22" s="17"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
         <v>15</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="20">
         <v>1</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="34" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="37">
+      <c r="A24" s="27">
         <v>16</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -1373,7 +1319,7 @@
       <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="37">
+      <c r="A25" s="27">
         <v>17</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -1390,7 +1336,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
+      <c r="A26" s="27">
         <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -1405,7 +1351,7 @@
       <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="37">
+      <c r="A27" s="27">
         <v>19</v>
       </c>
       <c r="B27" s="17" t="s">
@@ -1443,7 +1389,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficerLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficerLog.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480CD5FA-0E4B-4380-A423-117824A6D09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="說明" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -244,11 +244,58 @@
     <t>auto</t>
   </si>
   <si>
+    <t>UpdateDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateTlrNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新經辦</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期時間</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增 2.修改 4.刪除 
+6.離職異動 7.調職異動 8.考核職級異動9.考核核算底稿</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                      </t>
+  </si>
+  <si>
+    <t>findEmpNoEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>EmpNo=</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>findEmpNoEq</t>
+    <t>findEmpEffectiveDateFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EmpNo=, AND EffectiveDate= </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -256,43 +303,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>UpdateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateTlrNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新經辦</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>LogNo DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FunctionCode</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decimal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.新增 2.修改 4.刪除 
-6.離職異動 7.調職異動 8.考核職級異動9.考核核算底稿</t>
+    <t>1.產生房貸協辦人員異動房貸協辦人員異動名單 
+   EmpNo = LP006,  EffectiveDate=下季季初日,  FunctionCode =0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -484,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,15 +613,18 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="一般 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="一般 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般 2 3" xfId="4"/>
+    <cellStyle name="一般 2 4" xfId="2"/>
+    <cellStyle name="一般 3" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -610,9 +640,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -650,9 +680,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -687,7 +717,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,7 +752,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -895,11 +925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1028,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>56</v>
@@ -1249,10 +1279,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>28</v>
@@ -1268,10 +1298,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>25</v>
@@ -1287,20 +1317,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E23" s="20">
         <v>1</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1384,17 +1414,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -1413,13 +1443,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1427,4 +1468,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="143.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficerLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficerLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87518F43-D618-43DC-9F91-B77532D3A870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -314,12 +315,15 @@
     <t>1.產生房貸協辦人員異動房貸協辦人員異動名單 
    EmpNo = LP006,  EffectiveDate=下季季初日,  FunctionCode =0</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -602,6 +606,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -613,18 +620,15 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般 2 3" xfId="4"/>
-    <cellStyle name="一般 2 4" xfId="2"/>
-    <cellStyle name="一般 3" xfId="5"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,9 +644,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -680,9 +684,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,7 +721,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -752,7 +756,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -925,11 +929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -944,10 +948,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
@@ -959,8 +963,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -972,10 +976,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="17" t="s">
         <v>55</v>
       </c>
@@ -987,10 +991,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
@@ -998,10 +1002,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -1009,10 +1013,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -1020,10 +1024,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -1344,7 +1348,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E24" s="20"/>
     </row>
@@ -1376,7 +1380,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E26" s="20"/>
     </row>
@@ -1414,7 +1418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1471,10 +1475,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1484,7 +1488,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficerLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficerLog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87518F43-D618-43DC-9F91-B77532D3A870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -269,11 +268,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1.新增 2.修改 4.刪除 
-6.離職異動 7.調職異動 8.考核職級異動9.考核核算底稿</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>LogNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -318,12 +312,17 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>1.新增 2.修改 3.複製 4.刪除 
+6.離職異動 7.調職異動 8.考核職級異動9.考核核算底稿</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -624,11 +623,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="一般 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="一般 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般 2 3" xfId="4"/>
+    <cellStyle name="一般 2 4" xfId="2"/>
+    <cellStyle name="一般 3" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -644,9 +643,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -684,9 +683,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,7 +720,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,7 +755,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -929,11 +928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1062,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>56</v>
@@ -1321,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>62</v>
@@ -1334,7 +1333,7 @@
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="19" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1348,7 +1347,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="20"/>
     </row>
@@ -1380,7 +1379,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="20"/>
     </row>
@@ -1418,7 +1417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1447,24 +1446,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1489,17 +1488,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
